--- a/Team-Data/2007-08/1-14-2007-08.xlsx
+++ b/Team-Data/2007-08/1-14-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -765,7 +832,7 @@
         <v>27</v>
       </c>
       <c r="AK2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
         <v>30</v>
@@ -792,10 +859,10 @@
         <v>20</v>
       </c>
       <c r="AT2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV2" t="n">
         <v>21</v>
@@ -816,7 +883,7 @@
         <v>7</v>
       </c>
       <c r="BB2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -848,64 +915,64 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="n">
         <v>30</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.833</v>
+        <v>0.857</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J3" t="n">
         <v>74.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.469</v>
+        <v>0.47</v>
       </c>
       <c r="L3" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M3" t="n">
         <v>19.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.374</v>
+        <v>0.377</v>
       </c>
       <c r="O3" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="P3" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="R3" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T3" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="U3" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V3" t="n">
         <v>15.2</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X3" t="n">
         <v>4.4</v>
@@ -920,13 +987,13 @@
         <v>22.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.1</v>
+        <v>11.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,16 +1005,16 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL3" t="n">
         <v>9</v>
@@ -968,16 +1035,16 @@
         <v>11</v>
       </c>
       <c r="AR3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS3" t="n">
         <v>7</v>
       </c>
       <c r="AT3" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AU3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
         <v>16</v>
@@ -986,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -998,7 +1065,7 @@
         <v>8</v>
       </c>
       <c r="BB3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -1030,46 +1097,46 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>0.378</v>
+        <v>0.361</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="J4" t="n">
-        <v>78.5</v>
+        <v>78.3</v>
       </c>
       <c r="K4" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L4" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M4" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="N4" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O4" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P4" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.696</v>
+        <v>0.694</v>
       </c>
       <c r="R4" t="n">
         <v>10.9</v>
@@ -1078,73 +1145,73 @@
         <v>29.4</v>
       </c>
       <c r="T4" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U4" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="V4" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W4" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X4" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.40000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4</v>
+        <v>-4.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
         <v>2</v>
       </c>
       <c r="AI4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>25</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>24</v>
-      </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
       </c>
       <c r="AM4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN4" t="n">
         <v>6</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AP4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ4" t="n">
         <v>30</v>
@@ -1156,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="AT4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AV4" t="n">
         <v>26</v>
       </c>
       <c r="AW4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY4" t="n">
         <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA4" t="n">
         <v>11</v>
       </c>
       <c r="BB4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -1290,10 +1357,10 @@
         <v>-3.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
@@ -1305,7 +1372,7 @@
         <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
         <v>3</v>
@@ -1350,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="AX5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY5" t="n">
         <v>29</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>-2.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>16</v>
@@ -1490,7 +1557,7 @@
         <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK6" t="n">
         <v>28</v>
@@ -1502,7 +1569,7 @@
         <v>12</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO6" t="n">
         <v>18</v>
@@ -1517,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT6" t="n">
         <v>5</v>
@@ -1529,10 +1596,10 @@
         <v>13</v>
       </c>
       <c r="AW6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY6" t="n">
         <v>17</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -1576,37 +1643,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="n">
         <v>26</v>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.703</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J7" t="n">
         <v>77.8</v>
       </c>
       <c r="K7" t="n">
-        <v>0.47</v>
+        <v>0.468</v>
       </c>
       <c r="L7" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>16.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.367</v>
+        <v>0.359</v>
       </c>
       <c r="O7" t="n">
         <v>21.9</v>
@@ -1618,94 +1685,94 @@
         <v>0.824</v>
       </c>
       <c r="R7" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S7" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T7" t="n">
-        <v>41.9</v>
+        <v>42.1</v>
       </c>
       <c r="U7" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="V7" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X7" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y7" t="n">
         <v>4</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.2</v>
+        <v>100.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>3</v>
       </c>
       <c r="AF7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AJ7" t="n">
         <v>26</v>
       </c>
       <c r="AK7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
         <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU7" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
@@ -1714,13 +1781,13 @@
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -1758,97 +1825,97 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" t="n">
         <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>0.611</v>
+        <v>0.629</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="J8" t="n">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L8" t="n">
         <v>6.1</v>
       </c>
       <c r="M8" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.333</v>
+        <v>0.338</v>
       </c>
       <c r="O8" t="n">
         <v>22.9</v>
       </c>
       <c r="P8" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="R8" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="S8" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T8" t="n">
-        <v>45.4</v>
+        <v>45.3</v>
       </c>
       <c r="U8" t="n">
         <v>23.8</v>
       </c>
       <c r="V8" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>7.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.2</v>
+        <v>106.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1860,13 +1927,13 @@
         <v>12</v>
       </c>
       <c r="AL8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM8" t="n">
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,10 +1942,10 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AS8" t="n">
         <v>3</v>
@@ -1902,7 +1969,7 @@
         <v>16</v>
       </c>
       <c r="AZ8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,7 +2100,7 @@
         <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
@@ -2048,7 +2115,7 @@
         <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO9" t="n">
         <v>12</v>
@@ -2060,7 +2127,7 @@
         <v>8</v>
       </c>
       <c r="AR9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS9" t="n">
         <v>22</v>
@@ -2090,7 +2157,7 @@
         <v>21</v>
       </c>
       <c r="BB9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -2200,10 +2267,10 @@
         <v>1.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF10" t="n">
         <v>10</v>
@@ -2230,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
         <v>17</v>
@@ -2245,7 +2312,7 @@
         <v>5</v>
       </c>
       <c r="AS10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT10" t="n">
         <v>10</v>
@@ -2257,7 +2324,7 @@
         <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
         <v>24</v>
@@ -2275,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>2.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2394,16 +2461,16 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
         <v>19</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL11" t="n">
         <v>12</v>
@@ -2412,7 +2479,7 @@
         <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO11" t="n">
         <v>27</v>
@@ -2433,7 +2500,7 @@
         <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV11" t="n">
         <v>12</v>
@@ -2448,13 +2515,13 @@
         <v>10</v>
       </c>
       <c r="AZ11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC11" t="n">
         <v>12</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2643,7 @@
         <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
         <v>6</v>
@@ -2606,7 +2673,7 @@
         <v>19</v>
       </c>
       <c r="AR12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS12" t="n">
         <v>5</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -2752,13 +2819,13 @@
         <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2779,7 +2846,7 @@
         <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
         <v>9</v>
@@ -2806,13 +2873,13 @@
         <v>23</v>
       </c>
       <c r="AX13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY13" t="n">
         <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
         <v>14</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
         <v>11</v>
       </c>
       <c r="G14" t="n">
-        <v>0.703</v>
+        <v>0.694</v>
       </c>
       <c r="H14" t="n">
-        <v>48.1</v>
+        <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="J14" t="n">
-        <v>82.59999999999999</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.475</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
         <v>7.1</v>
@@ -2880,7 +2947,7 @@
         <v>19.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.366</v>
+        <v>0.367</v>
       </c>
       <c r="O14" t="n">
         <v>22.1</v>
@@ -2892,7 +2959,7 @@
         <v>0.76</v>
       </c>
       <c r="R14" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S14" t="n">
         <v>34.1</v>
@@ -2904,49 +2971,49 @@
         <v>23.7</v>
       </c>
       <c r="V14" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="W14" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA14" t="n">
         <v>23.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.8</v>
+        <v>107.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>3</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -2958,7 +3025,7 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2982,19 +3049,19 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
         <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3125,13 +3192,13 @@
         <v>20</v>
       </c>
       <c r="AI15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL15" t="n">
         <v>6</v>
@@ -3140,28 +3207,28 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO15" t="n">
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>25</v>
       </c>
       <c r="AS15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT15" t="n">
         <v>18</v>
       </c>
       <c r="AU15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV15" t="n">
         <v>27</v>
@@ -3185,7 +3252,7 @@
         <v>9</v>
       </c>
       <c r="BC15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-6</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
         <v>29</v>
@@ -3304,7 +3371,7 @@
         <v>29</v>
       </c>
       <c r="AH16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
         <v>24</v>
@@ -3325,7 +3392,7 @@
         <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP16" t="n">
         <v>13</v>
@@ -3334,7 +3401,7 @@
         <v>28</v>
       </c>
       <c r="AR16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS16" t="n">
         <v>24</v>
@@ -3352,7 +3419,7 @@
         <v>15</v>
       </c>
       <c r="AX16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -3396,25 +3463,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
       </c>
       <c r="F17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" t="n">
-        <v>0.395</v>
+        <v>0.405</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>80.40000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>0.453</v>
@@ -3423,73 +3490,73 @@
         <v>5.4</v>
       </c>
       <c r="M17" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.342</v>
+        <v>0.344</v>
       </c>
       <c r="O17" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P17" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q17" t="n">
         <v>0.738</v>
       </c>
       <c r="R17" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S17" t="n">
         <v>28.6</v>
       </c>
       <c r="T17" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U17" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="V17" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="W17" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y17" t="n">
         <v>5.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.09999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>-5.7</v>
+        <v>-5.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ17" t="n">
         <v>16</v>
@@ -3516,37 +3583,37 @@
         <v>20</v>
       </c>
       <c r="AR17" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU17" t="n">
         <v>14</v>
       </c>
       <c r="AV17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW17" t="n">
         <v>20</v>
       </c>
       <c r="AX17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY17" t="n">
         <v>23</v>
       </c>
       <c r="AZ17" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC17" t="n">
         <v>26</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI18" t="n">
         <v>17</v>
@@ -3680,13 +3747,13 @@
         <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM18" t="n">
         <v>20</v>
       </c>
       <c r="AN18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3710,7 +3777,7 @@
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW18" t="n">
         <v>17</v>
@@ -3728,7 +3795,7 @@
         <v>30</v>
       </c>
       <c r="BB18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -3760,94 +3827,94 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" t="n">
         <v>18</v>
       </c>
       <c r="F19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19" t="n">
-        <v>0.486</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="J19" t="n">
         <v>76.8</v>
       </c>
       <c r="K19" t="n">
-        <v>0.433</v>
+        <v>0.436</v>
       </c>
       <c r="L19" t="n">
         <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="N19" t="n">
         <v>0.323</v>
       </c>
       <c r="O19" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="P19" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.718</v>
+        <v>0.717</v>
       </c>
       <c r="R19" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S19" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="T19" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U19" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="V19" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="W19" t="n">
         <v>6.8</v>
       </c>
       <c r="X19" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.7</v>
+        <v>93.3</v>
       </c>
       <c r="AC19" t="n">
-        <v>-4.8</v>
+        <v>-4.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
         <v>8</v>
@@ -3859,19 +3926,19 @@
         <v>28</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN19" t="n">
         <v>28</v>
       </c>
       <c r="AO19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP19" t="n">
         <v>6</v>
@@ -3880,19 +3947,19 @@
         <v>26</v>
       </c>
       <c r="AR19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT19" t="n">
         <v>19</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>21</v>
       </c>
       <c r="AU19" t="n">
         <v>5</v>
       </c>
       <c r="AV19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
         <v>21</v>
@@ -3904,16 +3971,16 @@
         <v>6</v>
       </c>
       <c r="AZ19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BA19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -4020,19 +4087,19 @@
         <v>4</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG20" t="n">
         <v>7</v>
       </c>
       <c r="AH20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI20" t="n">
         <v>7</v>
@@ -4041,7 +4108,7 @@
         <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -4050,7 +4117,7 @@
         <v>7</v>
       </c>
       <c r="AN20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
@@ -4071,13 +4138,13 @@
         <v>11</v>
       </c>
       <c r="AU20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-7</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4214,7 +4281,7 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
         <v>27</v>
@@ -4235,7 +4302,7 @@
         <v>26</v>
       </c>
       <c r="AO21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP21" t="n">
         <v>12</v>
@@ -4250,7 +4317,7 @@
         <v>26</v>
       </c>
       <c r="AT21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU21" t="n">
         <v>30</v>
@@ -4259,7 +4326,7 @@
         <v>20</v>
       </c>
       <c r="AW21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -4414,13 +4481,13 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO22" t="n">
         <v>7</v>
       </c>
       <c r="AP22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ22" t="n">
         <v>24</v>
@@ -4435,22 +4502,22 @@
         <v>9</v>
       </c>
       <c r="AU22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV22" t="n">
         <v>14</v>
       </c>
       <c r="AW22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY22" t="n">
         <v>9</v>
       </c>
       <c r="AZ22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -4488,64 +4555,64 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" t="n">
         <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" t="n">
-        <v>0.368</v>
+        <v>0.378</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="J23" t="n">
-        <v>80.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L23" t="n">
         <v>3.9</v>
       </c>
       <c r="M23" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.322</v>
+        <v>0.321</v>
       </c>
       <c r="O23" t="n">
         <v>17.8</v>
       </c>
       <c r="P23" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q23" t="n">
         <v>0.716</v>
       </c>
       <c r="R23" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S23" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T23" t="n">
         <v>42.3</v>
       </c>
       <c r="U23" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="V23" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="W23" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X23" t="n">
         <v>5.3</v>
@@ -4560,37 +4627,37 @@
         <v>20.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.09999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM23" t="n">
         <v>28</v>
@@ -4599,7 +4666,7 @@
         <v>29</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP23" t="n">
         <v>15</v>
@@ -4608,25 +4675,25 @@
         <v>27</v>
       </c>
       <c r="AR23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS23" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AT23" t="n">
         <v>12</v>
       </c>
       <c r="AU23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW23" t="n">
         <v>6</v>
       </c>
       <c r="AX23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY23" t="n">
         <v>19</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>5.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4766,7 +4833,7 @@
         <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" t="n">
         <v>14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.622</v>
+        <v>0.611</v>
       </c>
       <c r="H25" t="n">
         <v>48.7</v>
@@ -4870,10 +4937,10 @@
         <v>36.2</v>
       </c>
       <c r="J25" t="n">
-        <v>78.5</v>
+        <v>78.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L25" t="n">
         <v>6.8</v>
@@ -4882,64 +4949,64 @@
         <v>17.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.394</v>
+        <v>0.389</v>
       </c>
       <c r="O25" t="n">
         <v>18.1</v>
       </c>
       <c r="P25" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="R25" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S25" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T25" t="n">
         <v>40.7</v>
       </c>
       <c r="U25" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V25" t="n">
         <v>13.8</v>
       </c>
       <c r="W25" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X25" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y25" t="n">
         <v>3.7</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AB25" t="n">
         <v>97.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH25" t="n">
         <v>2</v>
@@ -4948,10 +5015,10 @@
         <v>18</v>
       </c>
       <c r="AJ25" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL25" t="n">
         <v>11</v>
@@ -4969,10 +5036,10 @@
         <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS25" t="n">
         <v>17</v>
@@ -4981,7 +5048,7 @@
         <v>26</v>
       </c>
       <c r="AU25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV25" t="n">
         <v>7</v>
@@ -4990,13 +5057,13 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY25" t="n">
         <v>1</v>
       </c>
       <c r="AZ25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA25" t="n">
         <v>16</v>
@@ -5005,7 +5072,7 @@
         <v>17</v>
       </c>
       <c r="BC25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -5034,43 +5101,43 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" t="n">
         <v>21</v>
       </c>
       <c r="G26" t="n">
-        <v>0.417</v>
+        <v>0.4</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>35.8</v>
+        <v>35.5</v>
       </c>
       <c r="J26" t="n">
-        <v>78.5</v>
+        <v>78.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L26" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M26" t="n">
         <v>16.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.357</v>
+        <v>0.353</v>
       </c>
       <c r="O26" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="P26" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="Q26" t="n">
         <v>0.796</v>
@@ -5079,16 +5146,16 @@
         <v>10.3</v>
       </c>
       <c r="S26" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="T26" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="U26" t="n">
         <v>17.9</v>
       </c>
       <c r="V26" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="W26" t="n">
         <v>8</v>
@@ -5097,40 +5164,40 @@
         <v>3.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z26" t="n">
         <v>22.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="AD26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE26" t="n">
         <v>21</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>20</v>
       </c>
       <c r="AF26" t="n">
         <v>19</v>
       </c>
       <c r="AG26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK26" t="n">
         <v>13</v>
@@ -5142,7 +5209,7 @@
         <v>21</v>
       </c>
       <c r="AN26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO26" t="n">
         <v>6</v>
@@ -5154,10 +5221,10 @@
         <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AT26" t="n">
         <v>29</v>
@@ -5166,13 +5233,13 @@
         <v>29</v>
       </c>
       <c r="AV26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW26" t="n">
         <v>8</v>
       </c>
       <c r="AX26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY26" t="n">
         <v>21</v>
@@ -5181,10 +5248,10 @@
         <v>24</v>
       </c>
       <c r="BA26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC26" t="n">
         <v>20</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -5216,37 +5283,37 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" t="n">
         <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>0.694</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
       </c>
       <c r="I27" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J27" t="n">
         <v>79.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.458</v>
+        <v>0.46</v>
       </c>
       <c r="L27" t="n">
         <v>8.1</v>
       </c>
       <c r="M27" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.385</v>
+        <v>0.389</v>
       </c>
       <c r="O27" t="n">
         <v>17.3</v>
@@ -5255,25 +5322,25 @@
         <v>23</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.755</v>
+        <v>0.753</v>
       </c>
       <c r="R27" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S27" t="n">
-        <v>31.4</v>
+        <v>31.2</v>
       </c>
       <c r="T27" t="n">
-        <v>41.7</v>
+        <v>41.4</v>
       </c>
       <c r="U27" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V27" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W27" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X27" t="n">
         <v>3.8</v>
@@ -5282,40 +5349,40 @@
         <v>4.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA27" t="n">
         <v>20.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>97.90000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF27" t="n">
         <v>3</v>
       </c>
       <c r="AG27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH27" t="n">
         <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ27" t="n">
         <v>22</v>
       </c>
       <c r="AK27" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AL27" t="n">
         <v>5</v>
@@ -5333,25 +5400,25 @@
         <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR27" t="n">
         <v>23</v>
       </c>
       <c r="AS27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT27" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AU27" t="n">
         <v>9</v>
       </c>
       <c r="AV27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AX27" t="n">
         <v>28</v>
@@ -5363,10 +5430,10 @@
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
         <v>4</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G28" t="n">
-        <v>0.243</v>
+        <v>0.25</v>
       </c>
       <c r="H28" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>37.2</v>
+        <v>36.8</v>
       </c>
       <c r="J28" t="n">
-        <v>85.40000000000001</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.436</v>
+        <v>0.434</v>
       </c>
       <c r="L28" t="n">
         <v>4.6</v>
@@ -5428,40 +5495,40 @@
         <v>13.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O28" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P28" t="n">
         <v>23.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.765</v>
+        <v>0.767</v>
       </c>
       <c r="R28" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="T28" t="n">
-        <v>45.6</v>
+        <v>45.4</v>
       </c>
       <c r="U28" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="V28" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="W28" t="n">
         <v>6.7</v>
       </c>
       <c r="X28" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z28" t="n">
         <v>21.1</v>
@@ -5470,55 +5537,55 @@
         <v>20.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.8</v>
+        <v>96.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>-7.3</v>
+        <v>-7.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
       </c>
       <c r="AF28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG28" t="n">
         <v>28</v>
       </c>
       <c r="AH28" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK28" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM28" t="n">
         <v>27</v>
       </c>
       <c r="AN28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="n">
         <v>22</v>
       </c>
       <c r="AQ28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AR28" t="n">
         <v>12</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>11</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5527,16 +5594,16 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW28" t="n">
         <v>22</v>
       </c>
       <c r="AX28" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY28" t="n">
         <v>20</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>1.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
@@ -5670,13 +5737,13 @@
         <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
         <v>8</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK29" t="n">
         <v>15</v>
@@ -5718,7 +5785,7 @@
         <v>24</v>
       </c>
       <c r="AX29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY29" t="n">
         <v>8</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F30" t="n">
         <v>17</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.553</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="J30" t="n">
-        <v>80.59999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K30" t="n">
         <v>0.49</v>
@@ -5792,31 +5859,31 @@
         <v>11.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="O30" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="P30" t="n">
-        <v>29.6</v>
+        <v>29.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.747</v>
+        <v>0.749</v>
       </c>
       <c r="R30" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S30" t="n">
         <v>28.9</v>
       </c>
       <c r="T30" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="U30" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="V30" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W30" t="n">
         <v>8.9</v>
@@ -5831,19 +5898,19 @@
         <v>24.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>104.9</v>
+        <v>105.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
         <v>13</v>
@@ -5852,37 +5919,37 @@
         <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI30" t="n">
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
         <v>2</v>
       </c>
       <c r="AL30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM30" t="n">
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AO30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ30" t="n">
         <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
@@ -5944,88 +6011,88 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F31" t="n">
         <v>16</v>
       </c>
       <c r="G31" t="n">
-        <v>0.556</v>
+        <v>0.543</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
       </c>
       <c r="I31" t="n">
-        <v>36.5</v>
+        <v>36.8</v>
       </c>
       <c r="J31" t="n">
-        <v>81.40000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K31" t="n">
-        <v>0.448</v>
+        <v>0.45</v>
       </c>
       <c r="L31" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M31" t="n">
         <v>18.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O31" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="P31" t="n">
-        <v>24.7</v>
+        <v>24.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.801</v>
+        <v>0.797</v>
       </c>
       <c r="R31" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S31" t="n">
         <v>31.1</v>
       </c>
       <c r="T31" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="U31" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V31" t="n">
         <v>14.1</v>
       </c>
       <c r="W31" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X31" t="n">
         <v>5.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
         <v>10</v>
@@ -6037,13 +6104,13 @@
         <v>7</v>
       </c>
       <c r="AI31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL31" t="n">
         <v>14</v>
@@ -6058,7 +6125,7 @@
         <v>11</v>
       </c>
       <c r="AP31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
         <v>3</v>
@@ -6073,13 +6140,13 @@
         <v>8</v>
       </c>
       <c r="AU31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV31" t="n">
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX31" t="n">
         <v>14</v>
@@ -6091,7 +6158,7 @@
         <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-14-2007-08</t>
+          <t>2008-01-14</t>
         </is>
       </c>
     </row>
